--- a/CKServer_GZComputer_徐捷/配置.xlsx
+++ b/CKServer_GZComputer_徐捷/配置.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CSharpProjects\CKServer_USB\CKServer_GZComputer_徐捷\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4F488421-AE38-4D7D-9E4B-4A462B5A2AD9}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DA9F0A3D-4ABB-4EB6-962D-286A19942A0D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AD" sheetId="1" r:id="rId1"/>
     <sheet name="OC接收" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -39,11 +40,14 @@
   <connection id="4" xr16:uid="{1A53463E-CDE4-442A-A7F6-02BCD4AD240D}" name="rule_高轨3" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\CSharpProjects\CKServer_USB\CKServer_GZComputer_徐捷\rule_高轨.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
+  <connection id="5" xr16:uid="{1173A57A-407F-40FD-A48F-373BE891BDF9}" name="rule_高轨4" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="D:\CSharpProjects\CKServer_USB\CKServer_GZComputer_徐捷\rule_高轨.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="523">
   <si>
     <t>通道号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1551,6 +1555,271 @@
   </si>
   <si>
     <t>OC_Channel_161</t>
+  </si>
+  <si>
+    <t>异步发送</t>
+  </si>
+  <si>
+    <t>通道号</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>异步接收</t>
+  </si>
+  <si>
+    <t>三线制发送</t>
+  </si>
+  <si>
+    <t>二线制接收</t>
+  </si>
+  <si>
+    <t>秒脉冲</t>
+  </si>
+  <si>
+    <t>数管接收GNC计算机</t>
+  </si>
+  <si>
+    <t>数管发送GNC计算机</t>
+  </si>
+  <si>
+    <t>数管接收测试终端A机上行</t>
+  </si>
+  <si>
+    <t>数管发送测试终端A机下行</t>
+  </si>
+  <si>
+    <t>GNSS秒信号A</t>
+  </si>
+  <si>
+    <t>数管接收GNC执行机1</t>
+  </si>
+  <si>
+    <t>数管发送GNC执行机1</t>
+  </si>
+  <si>
+    <t>数管接收测试终端A机下行</t>
+  </si>
+  <si>
+    <t>数管发送测试终端B机下行</t>
+  </si>
+  <si>
+    <t>GNSS秒信号B</t>
+  </si>
+  <si>
+    <t>数管接收GNC执行机2</t>
+  </si>
+  <si>
+    <t>数管发送GNC执行机2</t>
+  </si>
+  <si>
+    <t>数管接收推进线路盒1</t>
+  </si>
+  <si>
+    <t>数管发送推进线路盒1</t>
+  </si>
+  <si>
+    <t>数管接收推进线路盒2</t>
+  </si>
+  <si>
+    <t>数管发送推进线路盒2</t>
+  </si>
+  <si>
+    <t>数管接收测控终端A机</t>
+  </si>
+  <si>
+    <t>数管发送测控终端A机</t>
+  </si>
+  <si>
+    <t>数管接收测控终端B机</t>
+  </si>
+  <si>
+    <t>数管发送测控终端B机</t>
+  </si>
+  <si>
+    <t xml:space="preserve">数管接收综合驱动控制器 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">数管发送综合驱动控制器 </t>
+  </si>
+  <si>
+    <t>数管接收空空通信机</t>
+  </si>
+  <si>
+    <t>数管发送空空通信机</t>
+  </si>
+  <si>
+    <t>RS422收10</t>
+  </si>
+  <si>
+    <t>RS422发10</t>
+  </si>
+  <si>
+    <t>RS422收11</t>
+  </si>
+  <si>
+    <t>RS422发11</t>
+  </si>
+  <si>
+    <t>数管接收指令上行</t>
+  </si>
+  <si>
+    <t>数管发送指令下行</t>
+  </si>
+  <si>
+    <t>数管接收综合控制单元</t>
+  </si>
+  <si>
+    <t>RS422发16</t>
+  </si>
+  <si>
+    <t>RS422收22</t>
+  </si>
+  <si>
+    <t>RS422发19</t>
+  </si>
+  <si>
+    <t>RS422收23</t>
+  </si>
+  <si>
+    <t>RS422发20</t>
+  </si>
+  <si>
+    <t>RS422收24</t>
+  </si>
+  <si>
+    <t>数管发送综合控制单元</t>
+  </si>
+  <si>
+    <t>RS422收25</t>
+  </si>
+  <si>
+    <t>RS422发22</t>
+  </si>
+  <si>
+    <t>RS422收26</t>
+  </si>
+  <si>
+    <t>RS422发23</t>
+  </si>
+  <si>
+    <t>RS422收27</t>
+  </si>
+  <si>
+    <t>RS422发24</t>
+  </si>
+  <si>
+    <t>RS422收28</t>
+  </si>
+  <si>
+    <t>RS422发25</t>
+  </si>
+  <si>
+    <t>RS422收29</t>
+  </si>
+  <si>
+    <t>RS422发26</t>
+  </si>
+  <si>
+    <t>RS422收30</t>
+  </si>
+  <si>
+    <t>RS422发27</t>
+  </si>
+  <si>
+    <t>RS422收31</t>
+  </si>
+  <si>
+    <t>RS422发28</t>
+  </si>
+  <si>
+    <t>RS422收32</t>
+  </si>
+  <si>
+    <t>RS422发29</t>
+  </si>
+  <si>
+    <t>RS422发30</t>
+  </si>
+  <si>
+    <t>RS422发31</t>
+  </si>
+  <si>
+    <t>RS422发32</t>
+  </si>
+  <si>
+    <t>RS422_Channel_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RS422_Channel_1</t>
+  </si>
+  <si>
+    <t>RS422_Channel_2</t>
+  </si>
+  <si>
+    <t>RS422_Channel_3</t>
+  </si>
+  <si>
+    <t>RS422_Channel_4</t>
+  </si>
+  <si>
+    <t>RS422_Channel_5</t>
+  </si>
+  <si>
+    <t>RS422_Channel_6</t>
+  </si>
+  <si>
+    <t>RS422_Channel_7</t>
+  </si>
+  <si>
+    <t>RS422_Channel_8</t>
+  </si>
+  <si>
+    <t>RS422_Channel_9</t>
+  </si>
+  <si>
+    <t>RS422_Channel_10</t>
+  </si>
+  <si>
+    <t>RS422_Channel_11</t>
+  </si>
+  <si>
+    <t>RS422_Channel_12</t>
+  </si>
+  <si>
+    <t>RS422_Channel_13</t>
+  </si>
+  <si>
+    <t>RS422_Channel_14</t>
+  </si>
+  <si>
+    <t>RS422_Channel_15</t>
+  </si>
+  <si>
+    <t>RS422_Channel_16</t>
+  </si>
+  <si>
+    <t>RS422_Channel_17</t>
+  </si>
+  <si>
+    <t>RS422_Channel_18</t>
+  </si>
+  <si>
+    <t>RS422_Channel_19</t>
+  </si>
+  <si>
+    <t>RS422_Channel_20</t>
+  </si>
+  <si>
+    <t>RS422_Channel_21</t>
+  </si>
+  <si>
+    <t>RS422_Channel_22</t>
+  </si>
+  <si>
+    <t>RS422_Channel_23</t>
   </si>
 </sst>
 </file>
@@ -1620,6 +1889,30 @@
 </styleSheet>
 </file>
 
+<file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
+<MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
+  <Schema ID="Schema1">
+    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
+      <xsd:element nillable="true" name="configuration">
+        <xsd:complexType>
+          <xsd:sequence minOccurs="0">
+            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="add" form="unqualified">
+              <xsd:complexType>
+                <xsd:attribute name="key" form="unqualified" type="xsd:string"/>
+                <xsd:attribute name="name" form="unqualified" type="xsd:string"/>
+              </xsd:complexType>
+            </xsd:element>
+          </xsd:sequence>
+        </xsd:complexType>
+      </xsd:element>
+    </xsd:schema>
+  </Schema>
+  <Map ID="1" Name="configuration_映射" RootElement="configuration" SchemaID="Schema1" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="5" DataBindingLoadMode="1"/>
+  </Map>
+</MapInfo>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{13E158E2-D488-4588-97F6-7E3785363052}" name="表4" displayName="表4" ref="B1:B163" totalsRowShown="0">
   <autoFilter ref="B1:B163" xr:uid="{FF621954-BC1D-47EC-A79E-E2661CE1140A}"/>
@@ -1675,6 +1968,21 @@
   <autoFilter ref="I1:I163" xr:uid="{064DC2F6-8B8D-4ED0-BBB2-66A0C4FA6282}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{F1B9F6EB-DA0F-4A82-85DE-DB1E55047DA9}" name="信号名称"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A0512CDC-26B1-4725-A012-10A4E0002CD9}" name="表1" displayName="表1" ref="B1:C25" tableType="xml" totalsRowShown="0" connectionId="5">
+  <autoFilter ref="B1:C25" xr:uid="{B3615A5A-5618-4553-BFFC-7AE8BD244CF4}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{2DCB75FC-94E4-4F6E-853B-D8A035660DC9}" uniqueName="key" name="通道号">
+      <xmlColumnPr mapId="1" xpath="/configuration/add/@key" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{214CC3C4-D520-44B6-86F1-181B0CC0A90E}" uniqueName="name" name="名称">
+      <xmlColumnPr mapId="1" xpath="/configuration/add/@name" xmlDataType="string"/>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2077,7 +2385,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
@@ -5833,4 +6141,472 @@
     <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{473C4B64-84EA-4D69-97D2-C0878012BB1E}">
+  <dimension ref="A1:S28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="31.75" customWidth="1"/>
+    <col min="3" max="3" width="31.125" customWidth="1"/>
+    <col min="7" max="7" width="32.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C1" t="s">
+        <v>437</v>
+      </c>
+      <c r="E1" t="s">
+        <v>438</v>
+      </c>
+      <c r="F1" t="s">
+        <v>436</v>
+      </c>
+      <c r="G1" t="s">
+        <v>437</v>
+      </c>
+      <c r="I1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1" t="s">
+        <v>436</v>
+      </c>
+      <c r="K1" t="s">
+        <v>437</v>
+      </c>
+      <c r="M1" t="s">
+        <v>440</v>
+      </c>
+      <c r="N1" t="s">
+        <v>436</v>
+      </c>
+      <c r="O1" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R1" t="s">
+        <v>436</v>
+      </c>
+      <c r="S1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>444</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>445</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>448</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3" t="s">
+        <v>449</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3" t="s">
+        <v>450</v>
+      </c>
+      <c r="R3">
+        <v>2</v>
+      </c>
+      <c r="S3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="F12">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="F13">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="F14">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="F15">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="F16">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="F17">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="F18">
+        <v>17</v>
+      </c>
+      <c r="G18" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="F19">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="F20">
+        <v>19</v>
+      </c>
+      <c r="G20" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="F21">
+        <v>20</v>
+      </c>
+      <c r="G21" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="F22">
+        <v>21</v>
+      </c>
+      <c r="G22" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="F23">
+        <v>22</v>
+      </c>
+      <c r="G23" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="F24">
+        <v>23</v>
+      </c>
+      <c r="G24" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="F25">
+        <v>24</v>
+      </c>
+      <c r="G25" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F26">
+        <v>25</v>
+      </c>
+      <c r="G26" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F27">
+        <v>26</v>
+      </c>
+      <c r="G27" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F28">
+        <v>27</v>
+      </c>
+      <c r="G28" t="s">
+        <v>498</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>